--- a/Hackathon_Bookshelf/testdata.xlsx
+++ b/Hackathon_Bookshelf/testdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Search Data</t>
   </si>
@@ -82,12 +82,24 @@
     <t>Gift Cards</t>
   </si>
   <si>
+    <t>Invalid Order type</t>
+  </si>
+  <si>
+    <t>Bulk Orders</t>
+  </si>
+  <si>
     <t>Occasion</t>
   </si>
   <si>
     <t>Birthday/Anniversary</t>
   </si>
   <si>
+    <t>Invalid Occasion</t>
+  </si>
+  <si>
+    <t>House Warming</t>
+  </si>
+  <si>
     <t>Gift Card amount</t>
   </si>
   <si>
@@ -143,6 +155,39 @@
   </si>
   <si>
     <t>`78125</t>
+  </si>
+  <si>
+    <t>Empty Recepient Name</t>
+  </si>
+  <si>
+    <t>Empty Recepient Email</t>
+  </si>
+  <si>
+    <t>Empty Sender Name</t>
+  </si>
+  <si>
+    <t>Empty Sender Email</t>
+  </si>
+  <si>
+    <t>Empty Sender Phonenumber</t>
+  </si>
+  <si>
+    <t>Search for study chair</t>
+  </si>
+  <si>
+    <t>Study chair</t>
+  </si>
+  <si>
+    <t>Sort By</t>
+  </si>
+  <si>
+    <t>Recommended</t>
+  </si>
+  <si>
+    <t>Invalid Sort By</t>
+  </si>
+  <si>
+    <t>High to Low</t>
   </si>
 </sst>
 </file>
@@ -150,10 +195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -178,7 +223,6 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -186,40 +230,39 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="54"/>
       <name val="Calibri"/>
       <charset val="0"/>
     </font>
@@ -232,6 +275,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color indexed="54"/>
       <name val="Calibri"/>
@@ -239,26 +289,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="19"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="16"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="Calibri"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="54"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
       <charset val="0"/>
     </font>
@@ -270,22 +327,15 @@
       <charset val="0"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <sz val="11"/>
+      <color indexed="16"/>
       <name val="Calibri"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
       <charset val="0"/>
     </font>
@@ -297,15 +347,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
+      <sz val="11"/>
+      <color indexed="19"/>
       <name val="Calibri"/>
       <charset val="0"/>
     </font>
@@ -319,103 +362,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="24"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="54"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="48"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,45 +469,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="48"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,6 +496,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="48"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -509,6 +552,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="48"/>
       </top>
@@ -517,166 +569,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,9 +733,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1022,10 +1062,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1057,12 +1097,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="1"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -1072,12 +1107,7 @@
       <c r="B3" s="1">
         <v>15000</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
@@ -1087,12 +1117,7 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
@@ -1102,12 +1127,7 @@
       <c r="B5" s="1">
         <v>15001</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
@@ -1117,12 +1137,7 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
@@ -1132,12 +1147,7 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
@@ -1147,12 +1157,7 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9">
@@ -1162,12 +1167,7 @@
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9">
@@ -1177,12 +1177,7 @@
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9">
@@ -1192,12 +1187,7 @@
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9">
@@ -1207,12 +1197,7 @@
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9">
@@ -1222,36 +1207,35 @@
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1500</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1274,7 +1258,7 @@
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1282,40 +1266,105 @@
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="6">
-        <v>999</v>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="6">
-        <v>500001</v>
+        <v>37</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="B22" s="5">
+        <v>999</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="B23" s="5">
+        <v>500001</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
